--- a/word2vec_chinese/word_level_pos.xlsx
+++ b/word2vec_chinese/word_level_pos.xlsx
@@ -8,15 +8,13 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="96">
   <si>
     <t>id</t>
   </si>
@@ -36,9 +34,18 @@
     <t>topic</t>
   </si>
   <si>
+    <t>tag</t>
+  </si>
+  <si>
+    <t>guideword_cn</t>
+  </si>
+  <si>
     <t>cattle</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>B1</t>
   </si>
   <si>
@@ -69,33 +76,54 @@
     <t>communication</t>
   </si>
   <si>
+    <t>但</t>
+  </si>
+  <si>
     <t>DESPITE</t>
   </si>
   <si>
+    <t>尽管</t>
+  </si>
+  <si>
     <t>and</t>
   </si>
   <si>
     <t>ALSO</t>
   </si>
   <si>
+    <t>还</t>
+  </si>
+  <si>
     <t>AFTER</t>
   </si>
   <si>
+    <t>后</t>
+  </si>
+  <si>
     <t>AFTER VERB</t>
   </si>
   <si>
     <t>A2</t>
   </si>
   <si>
+    <t>动词之后</t>
+  </si>
+  <si>
     <t>EMPHASIZE</t>
   </si>
   <si>
+    <t>强调</t>
+  </si>
+  <si>
     <t>as</t>
   </si>
   <si>
     <t>BECAUSE</t>
   </si>
   <si>
+    <t>因为</t>
+  </si>
+  <si>
     <t>because</t>
   </si>
   <si>
@@ -105,6 +133,9 @@
     <t>DIFFERENT STATEMENT</t>
   </si>
   <si>
+    <t>不同的陈述</t>
+  </si>
+  <si>
     <t>close</t>
   </si>
   <si>
@@ -117,39 +148,66 @@
     <t>work</t>
   </si>
   <si>
+    <t>工作</t>
+  </si>
+  <si>
     <t>after</t>
   </si>
   <si>
     <t>NUMBERS</t>
   </si>
   <si>
+    <t>数字</t>
+  </si>
+  <si>
     <t>USE</t>
   </si>
   <si>
+    <t>使用</t>
+  </si>
+  <si>
     <t>BEING OR APPEARING</t>
   </si>
   <si>
+    <t>正在或出现</t>
+  </si>
+  <si>
     <t>WHILE</t>
   </si>
   <si>
     <t>LIKE</t>
   </si>
   <si>
+    <t>喜欢</t>
+  </si>
+  <si>
     <t>before</t>
   </si>
   <si>
     <t>EARLIER</t>
   </si>
   <si>
+    <t>较早</t>
+  </si>
+  <si>
     <t>TO AVOID SOMETHING</t>
   </si>
   <si>
+    <t>避免某事</t>
+  </si>
+  <si>
     <t>UNTIL</t>
   </si>
   <si>
+    <t>直到</t>
+  </si>
+  <si>
     <t>EXPLAINING WHY</t>
   </si>
   <si>
+    <t>解释原因</t>
+  </si>
+  <si>
     <t>eight</t>
   </si>
   <si>
@@ -174,43 +232,73 @@
     <t>people: actions</t>
   </si>
   <si>
+    <t>门/窗</t>
+  </si>
+  <si>
     <t>PUBLIC PLACE</t>
   </si>
   <si>
+    <t>公共场所</t>
+  </si>
+  <si>
     <t>STOP OPERATING</t>
   </si>
   <si>
     <t>B2</t>
   </si>
   <si>
+    <t>停止操作</t>
+  </si>
+  <si>
     <t>NEAR</t>
   </si>
   <si>
     <t>adjective</t>
   </si>
   <si>
+    <t>靠近</t>
+  </si>
+  <si>
     <t>FRIENDLY</t>
   </si>
   <si>
     <t>relationships</t>
   </si>
   <si>
+    <t>友好的</t>
+  </si>
+  <si>
     <t>RELATIVE</t>
   </si>
   <si>
+    <t>相对的</t>
+  </si>
+  <si>
     <t>SIMILAR</t>
   </si>
   <si>
     <t>C1</t>
   </si>
   <si>
+    <t>相似的</t>
+  </si>
+  <si>
     <t>RELATIONSHIP</t>
   </si>
   <si>
+    <t>关系</t>
+  </si>
+  <si>
     <t>CAREFUL</t>
   </si>
   <si>
+    <t>小心</t>
+  </si>
+  <si>
     <t>END</t>
+  </si>
+  <si>
+    <t>结尾</t>
   </si>
   <si>
     <t>American English</t>
@@ -226,10 +314,17 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -379,7 +474,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -388,6 +483,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -573,12 +674,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -681,9 +797,7 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -699,55 +813,52 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -762,80 +873,82 @@
     <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -888,7 +1001,7 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -898,9 +1011,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="WPS">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="WPS">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -908,39 +1021,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4874CB"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="EE822F"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="F2BA02"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="75BD42"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="30C0B4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="E54C5E"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0026E5"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="7E1FAD"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="WPS">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -972,7 +1085,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1007,135 +1119,171 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="WPS">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumOff val="17500"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
-              <a:schemeClr val="phClr"/>
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="2700000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:hueOff val="-2520000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
-              <a:schemeClr val="phClr"/>
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="2700000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:gradFill>
-            <a:gsLst>
-              <a:gs pos="0">
-                <a:schemeClr val="phClr">
-                  <a:hueOff val="-4200000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="100000">
-                <a:schemeClr val="phClr"/>
-              </a:gs>
-            </a:gsLst>
-            <a:lin ang="2700000" scaled="1"/>
-          </a:gradFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="101600" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:schemeClr val="phClr">
-                <a:alpha val="60000"/>
-              </a:schemeClr>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:reflection stA="50000" endA="300" endPos="40000" dist="25400" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
           </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -1147,22 +1295,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E1" sqref="E$1:E$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="19.875" customWidth="1"/>
-    <col min="5" max="5" width="38.875" customWidth="1"/>
-    <col min="6" max="6" width="58.125" customWidth="1"/>
-    <col min="7" max="8" width="29" customWidth="1"/>
+    <col min="1" max="1" width="12.75" customWidth="1"/>
+    <col min="2" max="2" width="16.625" customWidth="1"/>
+    <col min="3" max="3" width="21.375" customWidth="1"/>
+    <col min="5" max="5" width="37.25" customWidth="1"/>
+    <col min="7" max="7" width="21.375" customWidth="1"/>
+    <col min="8" max="8" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1181,887 +1330,1185 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
       </c>
       <c r="G4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>12</v>
+      </c>
+      <c r="H4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>14</v>
+      <c r="B5" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>12</v>
+      </c>
+      <c r="H5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>14</v>
+      <c r="B6" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>12</v>
+      </c>
+      <c r="H6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>18</v>
+      <c r="B7" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
         <v>19</v>
       </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" t="s">
-        <v>16</v>
-      </c>
       <c r="G7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>12</v>
+      </c>
+      <c r="H7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>18</v>
+      <c r="B8" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>12</v>
+      </c>
+      <c r="H8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>18</v>
+      <c r="B9" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>12</v>
+      </c>
+      <c r="H9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>18</v>
+      <c r="B10" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>12</v>
+      </c>
+      <c r="H10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>24</v>
+      <c r="B11" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>29</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>12</v>
+      </c>
+      <c r="H11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>36</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
       </c>
       <c r="F12" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>12</v>
+      </c>
+      <c r="H12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="D13" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
       </c>
       <c r="F13" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>12</v>
+      </c>
+      <c r="H13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
       </c>
       <c r="F14" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>12</v>
+      </c>
+      <c r="H14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
-        <v>24</v>
+      <c r="B15" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="D15" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>12</v>
+      </c>
+      <c r="H15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
-        <v>33</v>
+      <c r="B16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="E16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" t="s">
+        <v>9</v>
       </c>
       <c r="G16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>12</v>
+      </c>
+      <c r="H16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
-        <v>18</v>
+      <c r="B17" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="D17" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" t="s">
+        <v>9</v>
       </c>
       <c r="G17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>12</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
-        <v>24</v>
+      <c r="B18" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>29</v>
+      </c>
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" t="s">
+        <v>9</v>
       </c>
       <c r="G18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>12</v>
+      </c>
+      <c r="H18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
-        <v>24</v>
+      <c r="B19" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D19" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" t="s">
+        <v>9</v>
       </c>
       <c r="G19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>12</v>
+      </c>
+      <c r="H19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
-        <v>24</v>
+      <c r="B20" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="D20" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" t="s">
+        <v>9</v>
       </c>
       <c r="G20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>12</v>
+      </c>
+      <c r="H20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
-        <v>24</v>
+      <c r="B21" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="D21" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="E21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" t="s">
+        <v>9</v>
       </c>
       <c r="G21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>12</v>
+      </c>
+      <c r="H21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="C22" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>29</v>
+      </c>
+      <c r="E22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" t="s">
+        <v>9</v>
       </c>
       <c r="G22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>12</v>
+      </c>
+      <c r="H22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="C23" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="D23" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="E23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" t="s">
+        <v>9</v>
       </c>
       <c r="G23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>12</v>
+      </c>
+      <c r="H23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="C24" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="D24" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="E24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" t="s">
+        <v>9</v>
       </c>
       <c r="G24" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>12</v>
+      </c>
+      <c r="H24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C25" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="D25" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="E25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" t="s">
+        <v>9</v>
       </c>
       <c r="G25" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>12</v>
+      </c>
+      <c r="H25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>44</v>
+        <v>64</v>
+      </c>
+      <c r="C26" t="s">
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="E26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" t="s">
+        <v>9</v>
       </c>
       <c r="G26" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>12</v>
+      </c>
+      <c r="H26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
-        <v>45</v>
+      <c r="B27" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" t="s">
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="E27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" t="s">
+        <v>9</v>
       </c>
       <c r="G27" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>12</v>
+      </c>
+      <c r="H27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
-        <v>46</v>
+      <c r="B28" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" t="s">
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>22</v>
+        <v>29</v>
+      </c>
+      <c r="E28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" t="s">
+        <v>9</v>
       </c>
       <c r="G28" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>12</v>
+      </c>
+      <c r="H28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>47</v>
+        <v>67</v>
+      </c>
+      <c r="C29" t="s">
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>29</v>
+      </c>
+      <c r="E29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" t="s">
+        <v>9</v>
       </c>
       <c r="G29" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>12</v>
+      </c>
+      <c r="H29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" t="s">
-        <v>48</v>
+      <c r="B30" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" t="s">
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="E30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" t="s">
+        <v>9</v>
       </c>
       <c r="G30" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>12</v>
+      </c>
+      <c r="H30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31">
         <v>580</v>
       </c>
       <c r="B31" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C31" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="D31" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E31" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F31" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="G31" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>12</v>
+      </c>
+      <c r="H31" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32">
         <v>1093</v>
       </c>
       <c r="B32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" t="s">
+        <v>73</v>
+      </c>
+      <c r="D32" t="s">
         <v>29</v>
       </c>
-      <c r="C32" t="s">
-        <v>52</v>
-      </c>
-      <c r="D32" t="s">
-        <v>22</v>
-      </c>
       <c r="E32" t="s">
-        <v>50</v>
+        <v>70</v>
+      </c>
+      <c r="F32" t="s">
+        <v>9</v>
       </c>
       <c r="G32" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>12</v>
+      </c>
+      <c r="H32" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33">
         <v>1198</v>
       </c>
       <c r="B33" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C33" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="D33" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="E33" t="s">
-        <v>50</v>
-      </c>
-      <c r="F33"/>
+        <v>70</v>
+      </c>
+      <c r="F33" t="s">
+        <v>9</v>
+      </c>
       <c r="G33" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>12</v>
+      </c>
+      <c r="H33" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34">
         <v>1409</v>
       </c>
       <c r="B34" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C34" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="D34" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E34" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="F34" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G34" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>12</v>
+      </c>
+      <c r="H34" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35">
         <v>1473</v>
       </c>
       <c r="B35" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" t="s">
+        <v>81</v>
+      </c>
+      <c r="D35" t="s">
         <v>29</v>
       </c>
-      <c r="C35" t="s">
-        <v>57</v>
-      </c>
-      <c r="D35" t="s">
-        <v>22</v>
-      </c>
       <c r="E35" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="F35" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="G35" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>12</v>
+      </c>
+      <c r="H35" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36">
         <v>1474</v>
       </c>
       <c r="B36" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C36" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="D36" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="F36" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="G36" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>12</v>
+      </c>
+      <c r="H36" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37">
         <v>1618</v>
       </c>
       <c r="B37" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="D37" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="E37" t="s">
-        <v>56</v>
+        <v>79</v>
+      </c>
+      <c r="F37" t="s">
+        <v>9</v>
       </c>
       <c r="G37" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+        <v>12</v>
+      </c>
+      <c r="H37" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38">
         <v>1619</v>
       </c>
       <c r="B38" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C38" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="D38" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="E38" t="s">
-        <v>56</v>
+        <v>79</v>
+      </c>
+      <c r="F38" t="s">
+        <v>9</v>
       </c>
       <c r="G38" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>12</v>
+      </c>
+      <c r="H38" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39">
         <v>1620</v>
       </c>
       <c r="B39" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C39" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="D39" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E39" t="s">
-        <v>56</v>
+        <v>79</v>
+      </c>
+      <c r="F39" t="s">
+        <v>9</v>
       </c>
       <c r="G39" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>12</v>
+      </c>
+      <c r="H39" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40">
         <v>1709</v>
       </c>
       <c r="B40" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C40" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="D40" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E40" t="s">
-        <v>50</v>
-      </c>
-      <c r="F40"/>
+        <v>70</v>
+      </c>
+      <c r="F40" t="s">
+        <v>9</v>
+      </c>
       <c r="G40" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>12</v>
+      </c>
+      <c r="H40" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41">
         <v>15709</v>
       </c>
       <c r="B41" t="s">
-        <v>29</v>
-      </c>
-      <c r="C41"/>
+        <v>40</v>
+      </c>
+      <c r="C41" t="s">
+        <v>9</v>
+      </c>
       <c r="D41" t="s">
-        <v>7</v>
-      </c>
-      <c r="E41"/>
+        <v>10</v>
+      </c>
+      <c r="E41" t="s">
+        <v>9</v>
+      </c>
       <c r="F41" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G41" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>95</v>
+      </c>
+      <c r="H41" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42">
         <v>16291</v>
       </c>
       <c r="B42" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C42" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="D42" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E42" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F42" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="G42" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>95</v>
+      </c>
+      <c r="H42" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43">
         <v>16832</v>
       </c>
       <c r="B43" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43" t="s">
+        <v>73</v>
+      </c>
+      <c r="D43" t="s">
         <v>29</v>
       </c>
-      <c r="C43" t="s">
-        <v>52</v>
-      </c>
-      <c r="D43" t="s">
-        <v>22</v>
-      </c>
       <c r="E43" t="s">
-        <v>50</v>
+        <v>70</v>
+      </c>
+      <c r="F43" t="s">
+        <v>9</v>
       </c>
       <c r="G43" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>95</v>
+      </c>
+      <c r="H43" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44">
         <v>16943</v>
       </c>
       <c r="B44" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C44" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="D44" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="E44" t="s">
-        <v>50</v>
-      </c>
-      <c r="F44"/>
+        <v>70</v>
+      </c>
+      <c r="F44" t="s">
+        <v>9</v>
+      </c>
       <c r="G44" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>95</v>
+      </c>
+      <c r="H44" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45">
         <v>17145</v>
       </c>
       <c r="B45" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C45" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="D45" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E45" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="F45" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G45" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
+        <v>95</v>
+      </c>
+      <c r="H45" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46">
         <v>17207</v>
       </c>
       <c r="B46" t="s">
+        <v>40</v>
+      </c>
+      <c r="C46" t="s">
+        <v>81</v>
+      </c>
+      <c r="D46" t="s">
         <v>29</v>
       </c>
-      <c r="C46" t="s">
-        <v>57</v>
-      </c>
-      <c r="D46" t="s">
-        <v>22</v>
-      </c>
       <c r="E46" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="F46" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="G46" t="s">
-        <v>65</v>
+        <v>95</v>
+      </c>
+      <c r="H46" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>